--- a/sellerflash-otomasyon-linkler/Bakeware.xlsx
+++ b/sellerflash-otomasyon-linkler/Bakeware.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nihat/Library/CloudStorage/GoogleDrive-skywalkerpluton@gmail.com/Drive'ım/Amazon/AmazonIcinGelistirdiklerim/amazon-seller-flash-otomasyonu-url/sellerflash-otomasyon-linkler/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nihat/Documents/AmazonIcinGelistirdiklerim/amazon-seller-flash-otomasyonu-url/sellerflash-otomasyon-linkler/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2D7DF26-6C05-9949-9083-98EB4A8132D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{485D1ED0-9A0C-CE4A-9C70-33878E4D4721}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3500" yWindow="740" windowWidth="25900" windowHeight="16960" xr2:uid="{F55516F6-218A-B945-85EC-83F5ABD7DF9D}"/>
+    <workbookView xWindow="3500" yWindow="740" windowWidth="25900" windowHeight="16860" xr2:uid="{F55516F6-218A-B945-85EC-83F5ABD7DF9D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -608,7 +608,7 @@
   <dimension ref="A1:B65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
